--- a/opm_hero_property/heroes/19.xlsx
+++ b/opm_hero_property/heroes/19.xlsx
@@ -14,6 +14,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="talent" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mechanical" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="limiter" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="status" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1197,7 +1198,7 @@
         <v>11167</v>
       </c>
       <c r="D4" t="n">
-        <v>11167</v>
+        <v>11404</v>
       </c>
       <c r="E4" t="n">
         <v>237</v>
@@ -1304,7 +1305,7 @@
         <v>12490</v>
       </c>
       <c r="D5" t="n">
-        <v>12490</v>
+        <v>12994</v>
       </c>
       <c r="E5" t="n">
         <v>355</v>
@@ -1411,7 +1412,7 @@
         <v>14047</v>
       </c>
       <c r="D6" t="n">
-        <v>14047</v>
+        <v>14866</v>
       </c>
       <c r="E6" t="n">
         <v>486</v>
@@ -1518,7 +1519,7 @@
         <v>15836</v>
       </c>
       <c r="D7" t="n">
-        <v>15836</v>
+        <v>18772</v>
       </c>
       <c r="E7" t="n">
         <v>912</v>
@@ -1625,7 +1626,7 @@
         <v>17860</v>
       </c>
       <c r="D8" t="n">
-        <v>17860</v>
+        <v>24176</v>
       </c>
       <c r="E8" t="n">
         <v>1351</v>
@@ -1732,7 +1733,7 @@
         <v>20194</v>
       </c>
       <c r="D9" t="n">
-        <v>20194</v>
+        <v>31452</v>
       </c>
       <c r="E9" t="n">
         <v>1783</v>
@@ -1839,7 +1840,7 @@
         <v>21439</v>
       </c>
       <c r="D10" t="n">
-        <v>21439</v>
+        <v>37510</v>
       </c>
       <c r="E10" t="n">
         <v>2108</v>
@@ -1946,7 +1947,7 @@
         <v>22918</v>
       </c>
       <c r="D11" t="n">
-        <v>22918</v>
+        <v>44950</v>
       </c>
       <c r="E11" t="n">
         <v>2459</v>
@@ -2053,7 +2054,7 @@
         <v>26030</v>
       </c>
       <c r="D12" t="n">
-        <v>26030</v>
+        <v>58190</v>
       </c>
       <c r="E12" t="n">
         <v>3026</v>
@@ -2160,7 +2161,7 @@
         <v>26653</v>
       </c>
       <c r="D13" t="n">
-        <v>26653</v>
+        <v>60062</v>
       </c>
       <c r="E13" t="n">
         <v>3405</v>
@@ -2267,7 +2268,7 @@
         <v>27276</v>
       </c>
       <c r="D14" t="n">
-        <v>27276</v>
+        <v>61933</v>
       </c>
       <c r="E14" t="n">
         <v>3783</v>
@@ -2374,7 +2375,7 @@
         <v>27898</v>
       </c>
       <c r="D15" t="n">
-        <v>27898</v>
+        <v>63805</v>
       </c>
       <c r="E15" t="n">
         <v>4161</v>
@@ -2481,7 +2482,7 @@
         <v>28521</v>
       </c>
       <c r="D16" t="n">
-        <v>28521</v>
+        <v>65676</v>
       </c>
       <c r="E16" t="n">
         <v>4539</v>
@@ -2588,7 +2589,7 @@
         <v>29143</v>
       </c>
       <c r="D17" t="n">
-        <v>29143</v>
+        <v>67547</v>
       </c>
       <c r="E17" t="n">
         <v>4918</v>
@@ -6534,4 +6535,2652 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AK23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>战斗类型</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>品质</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>pve等级</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>等级强化</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>装备品质%</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>装备强化%</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>天赋</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>研究所核心</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>职阶</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>限制器</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>机械核心</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>HeroId</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Level</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>EnhancePeriod</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Equips</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>TalentLevel</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Skills</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>hp</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>atk</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>crit</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>crit_res</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>crit_dmg</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>precise</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>parry</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>dmg_res</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>fury</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>show_level</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>chase</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>academy</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>limiter</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>mechanical</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>aura</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>type_aura</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>81</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>19</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>81</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>3,2,1,1,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>35184.81555679999</v>
+      </c>
+      <c r="U2" t="n">
+        <v>4301.9368165</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2555.3689442</v>
+      </c>
+      <c r="W2" t="n">
+        <v>2200</v>
+      </c>
+      <c r="X2" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>121</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>19</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>121</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>3,2,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>46873.31814749999</v>
+      </c>
+      <c r="U3" t="n">
+        <v>6674.58598</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3710.508104</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2200</v>
+      </c>
+      <c r="X3" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>121</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>161</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>19</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>161</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>79241.98174</v>
+      </c>
+      <c r="U4" t="n">
+        <v>12601.047375</v>
+      </c>
+      <c r="V4" t="n">
+        <v>7500.70326</v>
+      </c>
+      <c r="W4" t="n">
+        <v>2200</v>
+      </c>
+      <c r="X4" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>161</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>15</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>19</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>161</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>79241.98174</v>
+      </c>
+      <c r="U5" t="n">
+        <v>12601.047375</v>
+      </c>
+      <c r="V5" t="n">
+        <v>7500.70326</v>
+      </c>
+      <c r="W5" t="n">
+        <v>2200</v>
+      </c>
+      <c r="X5" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>470</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1070</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>161</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>19</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>161</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>4,3,2,2,1,1,0,0,2</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>71295.11554</v>
+      </c>
+      <c r="U6" t="n">
+        <v>11433.638625</v>
+      </c>
+      <c r="V6" t="n">
+        <v>6668.51946</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X6" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>470</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1070</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" t="n">
+        <v>240</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>25</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>19</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" t="n">
+        <v>240</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>5,3,3,3,0,2,1,0,0</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>276842.5512972</v>
+      </c>
+      <c r="U7" t="n">
+        <v>45850.2614</v>
+      </c>
+      <c r="V7" t="n">
+        <v>31495.618361</v>
+      </c>
+      <c r="W7" t="n">
+        <v>2840</v>
+      </c>
+      <c r="X7" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>930</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>2010</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" t="n">
+        <v>240</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>25</v>
+      </c>
+      <c r="I8" t="n">
+        <v>15</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>19</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O8" t="n">
+        <v>240</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,2,1,0,1</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>240798.0354612</v>
+      </c>
+      <c r="U8" t="n">
+        <v>40918.27940000001</v>
+      </c>
+      <c r="V8" t="n">
+        <v>27097.245431</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X8" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>930</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>2010</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C9" t="n">
+        <v>240</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10</v>
+      </c>
+      <c r="H9" t="n">
+        <v>25</v>
+      </c>
+      <c r="I9" t="n">
+        <v>15</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>19</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>240</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>10</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>252812.8740732</v>
+      </c>
+      <c r="U9" t="n">
+        <v>42562.27340000001</v>
+      </c>
+      <c r="V9" t="n">
+        <v>28563.369741</v>
+      </c>
+      <c r="W9" t="n">
+        <v>2240</v>
+      </c>
+      <c r="X9" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>930</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>2010</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" t="n">
+        <v>240</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>20</v>
+      </c>
+      <c r="H10" t="n">
+        <v>25</v>
+      </c>
+      <c r="I10" t="n">
+        <v>15</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>19</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>11</v>
+      </c>
+      <c r="O10" t="n">
+        <v>240</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>20</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>264827.7126852</v>
+      </c>
+      <c r="U10" t="n">
+        <v>44206.2674</v>
+      </c>
+      <c r="V10" t="n">
+        <v>30029.494051</v>
+      </c>
+      <c r="W10" t="n">
+        <v>2540</v>
+      </c>
+      <c r="X10" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>930</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>2010</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="n">
+        <v>240</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>30</v>
+      </c>
+      <c r="H11" t="n">
+        <v>25</v>
+      </c>
+      <c r="I11" t="n">
+        <v>15</v>
+      </c>
+      <c r="J11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>19</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>11</v>
+      </c>
+      <c r="O11" t="n">
+        <v>240</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>30</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,1,0,10</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>276842.5512972</v>
+      </c>
+      <c r="U11" t="n">
+        <v>45850.2614</v>
+      </c>
+      <c r="V11" t="n">
+        <v>31495.618361</v>
+      </c>
+      <c r="W11" t="n">
+        <v>2840</v>
+      </c>
+      <c r="X11" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>930</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>2010</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>240</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>30</v>
+      </c>
+      <c r="H12" t="n">
+        <v>25</v>
+      </c>
+      <c r="I12" t="n">
+        <v>14</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>19</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>11</v>
+      </c>
+      <c r="O12" t="n">
+        <v>240</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>30</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,0,0,5</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v>276842.5512972</v>
+      </c>
+      <c r="U12" t="n">
+        <v>45850.2614</v>
+      </c>
+      <c r="V12" t="n">
+        <v>31495.618361</v>
+      </c>
+      <c r="W12" t="n">
+        <v>2840</v>
+      </c>
+      <c r="X12" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>860</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1940</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>13</v>
+      </c>
+      <c r="C13" t="n">
+        <v>260</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>30</v>
+      </c>
+      <c r="H13" t="n">
+        <v>35</v>
+      </c>
+      <c r="I13" t="n">
+        <v>24</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>19</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>13</v>
+      </c>
+      <c r="O13" t="n">
+        <v>260</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>30</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,0,6</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v>403730.4880694</v>
+      </c>
+      <c r="U13" t="n">
+        <v>69367.634492</v>
+      </c>
+      <c r="V13" t="n">
+        <v>53041.8782278</v>
+      </c>
+      <c r="W13" t="n">
+        <v>2840</v>
+      </c>
+      <c r="X13" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>2080</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>260</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" t="n">
+        <v>30</v>
+      </c>
+      <c r="H14" t="n">
+        <v>35</v>
+      </c>
+      <c r="I14" t="n">
+        <v>25</v>
+      </c>
+      <c r="J14" t="n">
+        <v>7</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>19</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>13</v>
+      </c>
+      <c r="O14" t="n">
+        <v>260</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>30</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v>403730.4880694</v>
+      </c>
+      <c r="U14" t="n">
+        <v>69367.634492</v>
+      </c>
+      <c r="V14" t="n">
+        <v>53041.8782278</v>
+      </c>
+      <c r="W14" t="n">
+        <v>2840</v>
+      </c>
+      <c r="X14" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1070</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>2150</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>15</v>
+      </c>
+      <c r="C15" t="n">
+        <v>300</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>30</v>
+      </c>
+      <c r="H15" t="n">
+        <v>55</v>
+      </c>
+      <c r="I15" t="n">
+        <v>45</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>19</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>15</v>
+      </c>
+      <c r="O15" t="n">
+        <v>300</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>30</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>947264.9472836</v>
+      </c>
+      <c r="U15" t="n">
+        <v>172499.375426</v>
+      </c>
+      <c r="V15" t="n">
+        <v>150619.8406</v>
+      </c>
+      <c r="W15" t="n">
+        <v>2840</v>
+      </c>
+      <c r="X15" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1350</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>2430</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>16</v>
+      </c>
+      <c r="C16" t="n">
+        <v>400</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" t="n">
+        <v>30</v>
+      </c>
+      <c r="H16" t="n">
+        <v>95</v>
+      </c>
+      <c r="I16" t="n">
+        <v>85</v>
+      </c>
+      <c r="J16" t="n">
+        <v>10</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>19</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>16</v>
+      </c>
+      <c r="O16" t="n">
+        <v>400</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>30</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>4933372.9719434</v>
+      </c>
+      <c r="U16" t="n">
+        <v>907243.6377845</v>
+      </c>
+      <c r="V16" t="n">
+        <v>744178.7900873</v>
+      </c>
+      <c r="W16" t="n">
+        <v>2840</v>
+      </c>
+      <c r="X16" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1910</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>2990</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>500</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>30</v>
+      </c>
+      <c r="H17" t="n">
+        <v>160</v>
+      </c>
+      <c r="I17" t="n">
+        <v>150</v>
+      </c>
+      <c r="J17" t="n">
+        <v>10</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>19</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>16</v>
+      </c>
+      <c r="O17" t="n">
+        <v>500</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>30</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>8053315.637629701</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1484505.9984755</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1210700.9857836</v>
+      </c>
+      <c r="W17" t="n">
+        <v>2840</v>
+      </c>
+      <c r="X17" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>2820</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>3900</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>161</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>9</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>15</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>19</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>9</v>
+      </c>
+      <c r="O18" t="n">
+        <v>256</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>222784.483685</v>
+      </c>
+      <c r="U18" t="n">
+        <v>42631.6530885</v>
+      </c>
+      <c r="V18" t="n">
+        <v>24490.365956</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X18" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>470</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1070</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>256</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="n">
+        <v>200</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" t="n">
+        <v>10</v>
+      </c>
+      <c r="H19" t="n">
+        <v>20</v>
+      </c>
+      <c r="I19" t="n">
+        <v>10</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>19</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>10</v>
+      </c>
+      <c r="O19" t="n">
+        <v>260</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="n">
+        <v>10</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,0,0,2</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
+        <v>303857.0858828</v>
+      </c>
+      <c r="U19" t="n">
+        <v>54452.138486</v>
+      </c>
+      <c r="V19" t="n">
+        <v>35298.94477</v>
+      </c>
+      <c r="W19" t="n">
+        <v>2240</v>
+      </c>
+      <c r="X19" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>860</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1940</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>11</v>
+      </c>
+      <c r="C20" t="n">
+        <v>240</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>10</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>20</v>
+      </c>
+      <c r="H20" t="n">
+        <v>25</v>
+      </c>
+      <c r="I20" t="n">
+        <v>15</v>
+      </c>
+      <c r="J20" t="n">
+        <v>5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>19</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>11</v>
+      </c>
+      <c r="O20" t="n">
+        <v>264</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>20</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>389207.6728028</v>
+      </c>
+      <c r="U20" t="n">
+        <v>68543.375165</v>
+      </c>
+      <c r="V20" t="n">
+        <v>50243.752497</v>
+      </c>
+      <c r="W20" t="n">
+        <v>2540</v>
+      </c>
+      <c r="X20" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>930</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>2010</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>264</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>13</v>
+      </c>
+      <c r="C21" t="n">
+        <v>260</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>30</v>
+      </c>
+      <c r="H21" t="n">
+        <v>35</v>
+      </c>
+      <c r="I21" t="n">
+        <v>25</v>
+      </c>
+      <c r="J21" t="n">
+        <v>7</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>19</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="n">
+        <v>13</v>
+      </c>
+      <c r="O21" t="n">
+        <v>266</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>30</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>448167.4697163</v>
+      </c>
+      <c r="U21" t="n">
+        <v>80727.631316</v>
+      </c>
+      <c r="V21" t="n">
+        <v>60792.6593071</v>
+      </c>
+      <c r="W21" t="n">
+        <v>2840</v>
+      </c>
+      <c r="X21" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1070</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>2150</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>266</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>15</v>
+      </c>
+      <c r="C22" t="n">
+        <v>300</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>30</v>
+      </c>
+      <c r="H22" t="n">
+        <v>55</v>
+      </c>
+      <c r="I22" t="n">
+        <v>45</v>
+      </c>
+      <c r="J22" t="n">
+        <v>8</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>19</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>15</v>
+      </c>
+      <c r="O22" t="n">
+        <v>270</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="n">
+        <v>30</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v>512787.01084</v>
+      </c>
+      <c r="U22" t="n">
+        <v>97923.533987</v>
+      </c>
+      <c r="V22" t="n">
+        <v>74741.0526428</v>
+      </c>
+      <c r="W22" t="n">
+        <v>2840</v>
+      </c>
+      <c r="X22" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1350</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>2430</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>16</v>
+      </c>
+      <c r="C23" t="n">
+        <v>400</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>30</v>
+      </c>
+      <c r="H23" t="n">
+        <v>95</v>
+      </c>
+      <c r="I23" t="n">
+        <v>85</v>
+      </c>
+      <c r="J23" t="n">
+        <v>10</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>19</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="n">
+        <v>16</v>
+      </c>
+      <c r="O23" t="n">
+        <v>280</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="n">
+        <v>30</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>645852.6207093</v>
+      </c>
+      <c r="U23" t="n">
+        <v>133007.2059265</v>
+      </c>
+      <c r="V23" t="n">
+        <v>103074.8597369</v>
+      </c>
+      <c r="W23" t="n">
+        <v>2840</v>
+      </c>
+      <c r="X23" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1910</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>2990</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/opm_hero_property/heroes/19.xlsx
+++ b/opm_hero_property/heroes/19.xlsx
@@ -6543,7 +6543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK23"/>
+  <dimension ref="A1:AS25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6737,6 +6737,46 @@
           <t>type_aura</t>
         </is>
       </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>基础战力</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>装备战力</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>天赋战力</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>研究所战力</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>职阶战力</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>机械核心战力</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>限制器战力</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>总战力</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -6745,31 +6785,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2" t="n">
+        <v>400</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
         <v>5</v>
       </c>
-      <c r="C2" t="n">
-        <v>81</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -6781,106 +6821,130 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="O2" t="n">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>3,2,1,1,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>35184.81555679999</v>
+        <v>5068249.9719434</v>
       </c>
       <c r="U2" t="n">
-        <v>4301.9368165</v>
+        <v>930971.6377845</v>
       </c>
       <c r="V2" t="n">
-        <v>2555.3689442</v>
+        <v>766018.7900873</v>
       </c>
       <c r="W2" t="n">
-        <v>2200</v>
+        <v>2840</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>720</v>
       </c>
       <c r="Y2" t="n">
         <v>15000</v>
       </c>
       <c r="Z2" t="n">
+        <v>1910</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>2990</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
         <v>400</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1600</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>81</v>
       </c>
       <c r="AE2" t="n">
         <v>5000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
       </c>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="n">
+        <v>11173969.058685</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>2136562.356973425</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>2006045.6</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>15911740.31565842</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>pve</t>
+          <t>pvp</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>121</v>
+        <v>400</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -6892,73 +6956,97 @@
         <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="O3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>3,2,2,2,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>46873.31814749999</v>
+        <v>645852.6207093</v>
       </c>
       <c r="U3" t="n">
-        <v>6674.58598</v>
+        <v>133007.2059265</v>
       </c>
       <c r="V3" t="n">
-        <v>3710.508104</v>
+        <v>103074.8597369</v>
       </c>
       <c r="W3" t="n">
-        <v>2200</v>
+        <v>2840</v>
       </c>
       <c r="X3" t="n">
-        <v>400</v>
+        <v>720</v>
       </c>
       <c r="Y3" t="n">
         <v>15000</v>
       </c>
       <c r="Z3" t="n">
-        <v>400</v>
+        <v>1910</v>
       </c>
       <c r="AA3" t="n">
-        <v>1600</v>
+        <v>2880</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>2990</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="AE3" t="n">
         <v>5000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
       </c>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="n">
+        <v>1266087.346145</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>243444.788944325</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>479008.6</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>2171460.785089325</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -6967,16 +7055,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -6985,10 +7073,10 @@
         <v>-1</v>
       </c>
       <c r="H4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -7003,10 +7091,10 @@
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -7017,50 +7105,50 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,0,0,0,0</t>
+          <t>3,2,1,1,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>79241.98174</v>
+        <v>7639.7104</v>
       </c>
       <c r="U4" t="n">
-        <v>12601.047375</v>
+        <v>1570.2743</v>
       </c>
       <c r="V4" t="n">
-        <v>7500.70326</v>
+        <v>580.3425999999999</v>
       </c>
       <c r="W4" t="n">
-        <v>2200</v>
+        <v>550</v>
       </c>
       <c r="X4" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="Y4" t="n">
         <v>15000</v>
       </c>
       <c r="Z4" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="AA4" t="n">
-        <v>1600</v>
+        <v>320</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="AE4" t="n">
         <v>5000</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -7070,6 +7158,30 @@
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="n">
+        <v>19042.17302</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>4498.9</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>23541.07302</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7078,16 +7190,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -7096,13 +7208,13 @@
         <v>-1</v>
       </c>
       <c r="H5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -7114,10 +7226,10 @@
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -7128,59 +7240,83 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,1,0,0,1</t>
+          <t>3,2,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>79241.98174</v>
+        <v>20352.0675</v>
       </c>
       <c r="U5" t="n">
-        <v>12601.047375</v>
+        <v>3922.516</v>
       </c>
       <c r="V5" t="n">
-        <v>7500.70326</v>
+        <v>1751.512</v>
       </c>
       <c r="W5" t="n">
-        <v>2200</v>
+        <v>638</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="Y5" t="n">
         <v>15000</v>
       </c>
       <c r="Z5" t="n">
-        <v>470</v>
+        <v>160</v>
       </c>
       <c r="AA5" t="n">
-        <v>1600</v>
+        <v>640</v>
       </c>
       <c r="AB5" t="n">
-        <v>1070</v>
+        <v>400</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="AE5" t="n">
         <v>5000</v>
       </c>
       <c r="AF5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="n">
+        <v>48278.52190000001</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>11906.8</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>60185.3219</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7204,16 +7340,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H6" t="n">
         <v>15</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -7235,39 +7371,39 @@
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>4,3,2,2,1,1,0,0,2</t>
+          <t>4,3,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>71295.11554</v>
+        <v>57030.22</v>
       </c>
       <c r="U6" t="n">
-        <v>11433.638625</v>
+        <v>10054.725</v>
       </c>
       <c r="V6" t="n">
-        <v>6668.51946</v>
+        <v>5640.780000000001</v>
       </c>
       <c r="W6" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="X6" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Y6" t="n">
         <v>15000</v>
       </c>
       <c r="Z6" t="n">
-        <v>470</v>
+        <v>300</v>
       </c>
       <c r="AA6" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="AB6" t="n">
-        <v>1070</v>
+        <v>750</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
@@ -7282,16 +7418,40 @@
         <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="n">
+        <v>115154.0075</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>32738.5</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>9356.799999999999</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>163409.8075</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7300,31 +7460,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>-1</v>
       </c>
       <c r="H7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -7336,10 +7496,10 @@
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -7350,59 +7510,83 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>5,3,3,3,0,2,1,0,0</t>
+          <t>4,3,2,2,0,1,0,0,1</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>276842.5512972</v>
+        <v>57030.22</v>
       </c>
       <c r="U7" t="n">
-        <v>45850.2614</v>
+        <v>10054.725</v>
       </c>
       <c r="V7" t="n">
-        <v>31495.618361</v>
+        <v>5640.780000000001</v>
       </c>
       <c r="W7" t="n">
-        <v>2840</v>
+        <v>900</v>
       </c>
       <c r="X7" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="Y7" t="n">
         <v>15000</v>
       </c>
       <c r="Z7" t="n">
-        <v>930</v>
+        <v>370</v>
       </c>
       <c r="AA7" t="n">
-        <v>2880</v>
+        <v>1200</v>
       </c>
       <c r="AB7" t="n">
-        <v>2010</v>
+        <v>820</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE7" t="n">
         <v>5000</v>
       </c>
       <c r="AF7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="n">
+        <v>115154.0075</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>32738.5</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>9538.799999999999</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>163591.8075</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7411,31 +7595,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>15</v>
+      </c>
+      <c r="I8" t="n">
         <v>5</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>25</v>
-      </c>
-      <c r="I8" t="n">
-        <v>15</v>
-      </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -7447,10 +7631,10 @@
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -7461,59 +7645,83 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,2,1,0,1</t>
+          <t>4,3,2,2,1,1,0,0,2</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>240798.0354612</v>
+        <v>57295.11554</v>
       </c>
       <c r="U8" t="n">
-        <v>40918.27940000001</v>
+        <v>10093.638625</v>
       </c>
       <c r="V8" t="n">
-        <v>27097.245431</v>
+        <v>5668.51946</v>
       </c>
       <c r="W8" t="n">
-        <v>1940</v>
+        <v>900</v>
       </c>
       <c r="X8" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="Y8" t="n">
         <v>15000</v>
       </c>
       <c r="Z8" t="n">
-        <v>930</v>
+        <v>370</v>
       </c>
       <c r="AA8" t="n">
-        <v>2880</v>
+        <v>1200</v>
       </c>
       <c r="AB8" t="n">
-        <v>2010</v>
+        <v>820</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE8" t="n">
         <v>5000</v>
       </c>
       <c r="AF8" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
       </c>
       <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="n">
+        <v>115154.0075</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>32738.5</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>692.9014475</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>9538.799999999999</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>164284.7089475</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7537,7 +7745,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H9" t="n">
         <v>25</v>
@@ -7546,7 +7754,7 @@
         <v>15</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -7568,24 +7776,24 @@
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,1,0,5</t>
+          <t>5,3,3,3,0,2,1,0,0</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>252812.8740732</v>
+        <v>238807.5516</v>
       </c>
       <c r="U9" t="n">
-        <v>42562.27340000001</v>
+        <v>40910.88</v>
       </c>
       <c r="V9" t="n">
-        <v>28563.369741</v>
+        <v>27077.633</v>
       </c>
       <c r="W9" t="n">
-        <v>2240</v>
+        <v>1940</v>
       </c>
       <c r="X9" t="n">
         <v>720</v>
@@ -7618,13 +7826,37 @@
         <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="n">
+        <v>519768.36335</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>38885</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>687934.01335</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7648,7 +7880,7 @@
         <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>25</v>
@@ -7657,7 +7889,7 @@
         <v>15</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -7679,24 +7911,24 @@
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,2,1,0,1</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>264827.7126852</v>
+        <v>240009.0354612</v>
       </c>
       <c r="U10" t="n">
-        <v>44206.2674</v>
+        <v>41075.27940000001</v>
       </c>
       <c r="V10" t="n">
-        <v>30029.494051</v>
+        <v>27224.245431</v>
       </c>
       <c r="W10" t="n">
-        <v>2540</v>
+        <v>1940</v>
       </c>
       <c r="X10" t="n">
         <v>720</v>
@@ -7729,13 +7961,37 @@
         <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI10" t="n">
         <v>0</v>
       </c>
       <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="n">
+        <v>519768.36335</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3178.86119945</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>38885</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>691112.8745494501</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7759,7 +8015,7 @@
         <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
         <v>25</v>
@@ -7768,7 +8024,7 @@
         <v>15</v>
       </c>
       <c r="J11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -7790,24 +8046,24 @@
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,1,0,10</t>
+          <t>5,3,3,3,2,2,1,0,5</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>276842.5512972</v>
+        <v>252023.8740732</v>
       </c>
       <c r="U11" t="n">
-        <v>45850.2614</v>
+        <v>42719.27340000001</v>
       </c>
       <c r="V11" t="n">
-        <v>31495.618361</v>
+        <v>28690.369741</v>
       </c>
       <c r="W11" t="n">
-        <v>2840</v>
+        <v>2240</v>
       </c>
       <c r="X11" t="n">
         <v>720</v>
@@ -7840,13 +8096,37 @@
         <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AI11" t="n">
         <v>0</v>
       </c>
       <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="n">
+        <v>519768.36335</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>35462.47319395001</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>38885</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>723396.4865439502</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7870,13 +8150,13 @@
         <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H12" t="n">
         <v>25</v>
       </c>
       <c r="I12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J12" t="n">
         <v>5</v>
@@ -7901,24 +8181,24 @@
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,0,0,5</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>276842.5512972</v>
+        <v>264038.7126852</v>
       </c>
       <c r="U12" t="n">
-        <v>45850.2614</v>
+        <v>44363.2674</v>
       </c>
       <c r="V12" t="n">
-        <v>31495.618361</v>
+        <v>30156.494051</v>
       </c>
       <c r="W12" t="n">
-        <v>2840</v>
+        <v>2540</v>
       </c>
       <c r="X12" t="n">
         <v>720</v>
@@ -7927,13 +8207,13 @@
         <v>15000</v>
       </c>
       <c r="Z12" t="n">
-        <v>860</v>
+        <v>930</v>
       </c>
       <c r="AA12" t="n">
         <v>2880</v>
       </c>
       <c r="AB12" t="n">
-        <v>1940</v>
+        <v>2010</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -7948,7 +8228,7 @@
         <v>25</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
         <v>5</v>
@@ -7958,6 +8238,30 @@
       </c>
       <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="n">
+        <v>519768.36335</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>67746.08518845</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>38885</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>755680.0985384501</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7966,10 +8270,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -7984,13 +8288,13 @@
         <v>30</v>
       </c>
       <c r="H13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -8002,10 +8306,10 @@
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -8016,17 +8320,17 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,0,6</t>
+          <t>5,3,3,3,4,2,1,0,10</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>403730.4880694</v>
+        <v>276053.5512972</v>
       </c>
       <c r="U13" t="n">
-        <v>69367.634492</v>
+        <v>46007.2614</v>
       </c>
       <c r="V13" t="n">
-        <v>53041.8782278</v>
+        <v>31622.618361</v>
       </c>
       <c r="W13" t="n">
         <v>2840</v>
@@ -8038,37 +8342,61 @@
         <v>15000</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>930</v>
       </c>
       <c r="AA13" t="n">
         <v>2880</v>
       </c>
       <c r="AB13" t="n">
-        <v>2080</v>
+        <v>2010</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE13" t="n">
         <v>5000</v>
       </c>
       <c r="AF13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
       </c>
       <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="n">
+        <v>519768.36335</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>100029.69718295</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>38885</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>787963.71053295</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8077,10 +8405,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8095,13 +8423,13 @@
         <v>30</v>
       </c>
       <c r="H14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8113,10 +8441,10 @@
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8127,17 +8455,17 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,4,2,0,0,5</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>403730.4880694</v>
+        <v>276053.5512972</v>
       </c>
       <c r="U14" t="n">
-        <v>69367.634492</v>
+        <v>46007.2614</v>
       </c>
       <c r="V14" t="n">
-        <v>53041.8782278</v>
+        <v>31622.618361</v>
       </c>
       <c r="W14" t="n">
         <v>2840</v>
@@ -8149,37 +8477,61 @@
         <v>15000</v>
       </c>
       <c r="Z14" t="n">
-        <v>1070</v>
+        <v>860</v>
       </c>
       <c r="AA14" t="n">
         <v>2880</v>
       </c>
       <c r="AB14" t="n">
-        <v>2150</v>
+        <v>1940</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE14" t="n">
         <v>5000</v>
       </c>
       <c r="AF14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AH14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI14" t="n">
         <v>0</v>
       </c>
       <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="n">
+        <v>519768.36335</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>100029.69718295</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>38703</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>787781.71053295</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -8188,10 +8540,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8206,13 +8558,13 @@
         <v>30</v>
       </c>
       <c r="H15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="I15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="J15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -8224,10 +8576,10 @@
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -8238,17 +8590,17 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,4,2,2,0,6</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>947264.9472836</v>
+        <v>406230.4880694</v>
       </c>
       <c r="U15" t="n">
-        <v>172499.375426</v>
+        <v>70175.634492</v>
       </c>
       <c r="V15" t="n">
-        <v>150619.8406</v>
+        <v>53815.8782278</v>
       </c>
       <c r="W15" t="n">
         <v>2840</v>
@@ -8260,37 +8612,61 @@
         <v>15000</v>
       </c>
       <c r="Z15" t="n">
-        <v>1350</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
         <v>2880</v>
       </c>
       <c r="AB15" t="n">
-        <v>2430</v>
+        <v>2080</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="AE15" t="n">
         <v>5000</v>
       </c>
       <c r="AF15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AG15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="AH15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI15" t="n">
         <v>0</v>
       </c>
       <c r="AJ15" t="inlineStr"/>
       <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="n">
+        <v>800051.07741</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>153844.98846405</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>111419.8</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>1212695.66587405</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -8299,10 +8675,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8317,13 +8693,13 @@
         <v>30</v>
       </c>
       <c r="H16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -8335,10 +8711,10 @@
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -8349,17 +8725,17 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>4933372.9719434</v>
+        <v>406230.4880694</v>
       </c>
       <c r="U16" t="n">
-        <v>907243.6377845</v>
+        <v>70175.634492</v>
       </c>
       <c r="V16" t="n">
-        <v>744178.7900873</v>
+        <v>53815.8782278</v>
       </c>
       <c r="W16" t="n">
         <v>2840</v>
@@ -8371,37 +8747,61 @@
         <v>15000</v>
       </c>
       <c r="Z16" t="n">
-        <v>1910</v>
+        <v>1070</v>
       </c>
       <c r="AA16" t="n">
         <v>2880</v>
       </c>
       <c r="AB16" t="n">
-        <v>2990</v>
+        <v>2150</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="AE16" t="n">
         <v>5000</v>
       </c>
       <c r="AF16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI16" t="n">
         <v>0</v>
       </c>
       <c r="AJ16" t="inlineStr"/>
       <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="n">
+        <v>800051.07741</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>153844.98846405</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>111601.8</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>1212877.66587405</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -8410,10 +8810,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8428,13 +8828,13 @@
         <v>30</v>
       </c>
       <c r="H17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="I17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="J17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -8446,10 +8846,10 @@
         <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -8460,17 +8860,17 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,3,3,3,8</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>8053315.637629701</v>
+        <v>984759.9472836</v>
       </c>
       <c r="U17" t="n">
-        <v>1484505.9984755</v>
+        <v>179356.375426</v>
       </c>
       <c r="V17" t="n">
-        <v>1210700.9857836</v>
+        <v>157252.8406</v>
       </c>
       <c r="W17" t="n">
         <v>2840</v>
@@ -8482,70 +8882,94 @@
         <v>15000</v>
       </c>
       <c r="Z17" t="n">
-        <v>2820</v>
+        <v>1350</v>
       </c>
       <c r="AA17" t="n">
         <v>2880</v>
       </c>
       <c r="AB17" t="n">
-        <v>3900</v>
+        <v>2430</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="AE17" t="n">
         <v>5000</v>
       </c>
       <c r="AF17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="AG17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="AH17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI17" t="n">
         <v>0</v>
       </c>
       <c r="AJ17" t="inlineStr"/>
       <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="n">
+        <v>1832519.84828</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>352265.772893</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>155697.55</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>685602</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>3140244.771173</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>161</v>
+        <v>400</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -8557,106 +8981,130 @@
         <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O18" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,1,0,0,1</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>222784.483685</v>
+        <v>5068249.9719434</v>
       </c>
       <c r="U18" t="n">
-        <v>42631.6530885</v>
+        <v>930971.6377845</v>
       </c>
       <c r="V18" t="n">
-        <v>24490.365956</v>
+        <v>766018.7900873</v>
       </c>
       <c r="W18" t="n">
-        <v>1300</v>
+        <v>2840</v>
       </c>
       <c r="X18" t="n">
-        <v>400</v>
+        <v>720</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>470</v>
+        <v>1910</v>
       </c>
       <c r="AA18" t="n">
-        <v>1600</v>
+        <v>2880</v>
       </c>
       <c r="AB18" t="n">
-        <v>1070</v>
+        <v>2990</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="AE18" t="n">
         <v>5000</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="AH18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AI18" t="n">
         <v>0</v>
       </c>
       <c r="AJ18" t="inlineStr"/>
       <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="n">
+        <v>11173969.058685</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>2136562.356973425</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>2006045.6</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>15911740.31565842</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B19" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" t="n">
+        <v>500</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
         <v>10</v>
-      </c>
-      <c r="C19" t="n">
-        <v>200</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>9</v>
       </c>
       <c r="F19" t="n">
         <v>5</v>
       </c>
       <c r="G19" t="n">
+        <v>30</v>
+      </c>
+      <c r="H19" t="n">
+        <v>160</v>
+      </c>
+      <c r="I19" t="n">
+        <v>150</v>
+      </c>
+      <c r="J19" t="n">
         <v>10</v>
-      </c>
-      <c r="H19" t="n">
-        <v>20</v>
-      </c>
-      <c r="I19" t="n">
-        <v>10</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -8668,34 +9116,34 @@
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="O19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,0,0,2</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>303857.0858828</v>
+        <v>8363033.637629701</v>
       </c>
       <c r="U19" t="n">
-        <v>54452.138486</v>
+        <v>1538538.9984755</v>
       </c>
       <c r="V19" t="n">
-        <v>35298.94477</v>
+        <v>1259932.9857836</v>
       </c>
       <c r="W19" t="n">
-        <v>2240</v>
+        <v>2840</v>
       </c>
       <c r="X19" t="n">
         <v>720</v>
@@ -8704,37 +9152,61 @@
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>860</v>
+        <v>2820</v>
       </c>
       <c r="AA19" t="n">
         <v>2880</v>
       </c>
       <c r="AB19" t="n">
-        <v>1940</v>
+        <v>3900</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="AE19" t="n">
         <v>5000</v>
       </c>
       <c r="AF19" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="AG19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH19" t="n">
         <v>10</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>2</v>
       </c>
       <c r="AI19" t="n">
         <v>0</v>
       </c>
       <c r="AJ19" t="inlineStr"/>
       <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="n">
+        <v>18132484.41969</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3465466.57567635</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1061573.2</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>3467427.6</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>26241111.39536636</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -8743,31 +9215,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>15</v>
+      </c>
+      <c r="I20" t="n">
         <v>5</v>
       </c>
-      <c r="G20" t="n">
-        <v>20</v>
-      </c>
-      <c r="H20" t="n">
-        <v>25</v>
-      </c>
-      <c r="I20" t="n">
-        <v>15</v>
-      </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -8779,73 +9251,97 @@
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,1,0,0,1</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>389207.6728028</v>
+        <v>208784.483685</v>
       </c>
       <c r="U20" t="n">
-        <v>68543.375165</v>
+        <v>41291.6530885</v>
       </c>
       <c r="V20" t="n">
-        <v>50243.752497</v>
+        <v>23490.365956</v>
       </c>
       <c r="W20" t="n">
-        <v>2540</v>
+        <v>900</v>
       </c>
       <c r="X20" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="Y20" t="n">
         <v>15000</v>
       </c>
       <c r="Z20" t="n">
-        <v>930</v>
+        <v>370</v>
       </c>
       <c r="AA20" t="n">
-        <v>2880</v>
+        <v>1200</v>
       </c>
       <c r="AB20" t="n">
-        <v>2010</v>
+        <v>820</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="AE20" t="n">
         <v>5000</v>
       </c>
       <c r="AF20" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI20" t="n">
         <v>0</v>
       </c>
       <c r="AJ20" t="inlineStr"/>
       <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="n">
+        <v>549989.31213</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>32738.5</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>3337.48211265</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>14696.9</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>32753.8</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>633515.99424265</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8854,31 +9350,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C21" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" t="n">
         <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -8890,73 +9386,97 @@
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,2,2,0,0,2</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>448167.4697163</v>
+        <v>274457.0858828</v>
       </c>
       <c r="U21" t="n">
-        <v>80727.631316</v>
+        <v>51638.138486</v>
       </c>
       <c r="V21" t="n">
-        <v>60792.6593071</v>
+        <v>33198.94477</v>
       </c>
       <c r="W21" t="n">
-        <v>2840</v>
+        <v>1400</v>
       </c>
       <c r="X21" t="n">
-        <v>720</v>
+        <v>450</v>
       </c>
       <c r="Y21" t="n">
         <v>15000</v>
       </c>
       <c r="Z21" t="n">
-        <v>1070</v>
+        <v>590</v>
       </c>
       <c r="AA21" t="n">
-        <v>2880</v>
+        <v>1800</v>
       </c>
       <c r="AB21" t="n">
-        <v>2150</v>
+        <v>1265</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AE21" t="n">
         <v>5000</v>
       </c>
       <c r="AF21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AG21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AH21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AI21" t="n">
         <v>0</v>
       </c>
       <c r="AJ21" t="inlineStr"/>
       <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="n">
+        <v>651102.6097800001</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>49107.75</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>44205.8640837</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>19028.1</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>65507.60000000001</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>828951.9238637</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -8965,10 +9485,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C22" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -8980,16 +9500,16 @@
         <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="I22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="J22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -9001,34 +9521,34 @@
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>512787.01084</v>
+        <v>389207.6728028</v>
       </c>
       <c r="U22" t="n">
-        <v>97923.533987</v>
+        <v>68543.375165</v>
       </c>
       <c r="V22" t="n">
-        <v>74741.0526428</v>
+        <v>50243.752497</v>
       </c>
       <c r="W22" t="n">
-        <v>2840</v>
+        <v>2540</v>
       </c>
       <c r="X22" t="n">
         <v>720</v>
@@ -9037,37 +9557,61 @@
         <v>15000</v>
       </c>
       <c r="Z22" t="n">
-        <v>1350</v>
+        <v>930</v>
       </c>
       <c r="AA22" t="n">
         <v>2880</v>
       </c>
       <c r="AB22" t="n">
-        <v>2430</v>
+        <v>2010</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AE22" t="n">
         <v>5000</v>
       </c>
       <c r="AF22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="AG22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="AH22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AI22" t="n">
         <v>0</v>
       </c>
       <c r="AJ22" t="inlineStr"/>
       <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="n">
+        <v>823081.65935</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>107180.17894905</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>23382.7</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>95389.39999999999</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1163193.53829905</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -9076,10 +9620,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C23" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -9094,13 +9638,13 @@
         <v>30</v>
       </c>
       <c r="H23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9112,10 +9656,10 @@
         <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9126,17 +9670,17 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>645852.6207093</v>
+        <v>448167.4697163</v>
       </c>
       <c r="U23" t="n">
-        <v>133007.2059265</v>
+        <v>80727.631316</v>
       </c>
       <c r="V23" t="n">
-        <v>103074.8597369</v>
+        <v>60792.6593071</v>
       </c>
       <c r="W23" t="n">
         <v>2840</v>
@@ -9148,37 +9692,331 @@
         <v>15000</v>
       </c>
       <c r="Z23" t="n">
-        <v>1910</v>
+        <v>1070</v>
       </c>
       <c r="AA23" t="n">
         <v>2880</v>
       </c>
       <c r="AB23" t="n">
-        <v>2990</v>
+        <v>2150</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="AE23" t="n">
         <v>5000</v>
       </c>
       <c r="AF23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI23" t="n">
         <v>0</v>
       </c>
       <c r="AJ23" t="inlineStr"/>
       <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="n">
+        <v>898701.329805</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>172792.337007525</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>30363.65</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>151723</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1367739.916812525</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>15</v>
+      </c>
+      <c r="C24" t="n">
+        <v>300</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>30</v>
+      </c>
+      <c r="H24" t="n">
+        <v>55</v>
+      </c>
+      <c r="I24" t="n">
+        <v>45</v>
+      </c>
+      <c r="J24" t="n">
+        <v>8</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>19</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>15</v>
+      </c>
+      <c r="O24" t="n">
+        <v>270</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="n">
+        <v>30</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>512787.01084</v>
+      </c>
+      <c r="U24" t="n">
+        <v>97923.533987</v>
+      </c>
+      <c r="V24" t="n">
+        <v>74741.0526428</v>
+      </c>
+      <c r="W24" t="n">
+        <v>2840</v>
+      </c>
+      <c r="X24" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1350</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>2430</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="n">
+        <v>1018040.54556</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>195751.0524864</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>43173.05</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>260818.2</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1631942.4480464</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>16</v>
+      </c>
+      <c r="C25" t="n">
+        <v>400</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5</v>
+      </c>
+      <c r="G25" t="n">
+        <v>30</v>
+      </c>
+      <c r="H25" t="n">
+        <v>95</v>
+      </c>
+      <c r="I25" t="n">
+        <v>85</v>
+      </c>
+      <c r="J25" t="n">
+        <v>10</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>19</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>16</v>
+      </c>
+      <c r="O25" t="n">
+        <v>280</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="n">
+        <v>30</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v>645852.6207093</v>
+      </c>
+      <c r="U25" t="n">
+        <v>133007.2059265</v>
+      </c>
+      <c r="V25" t="n">
+        <v>103074.8597369</v>
+      </c>
+      <c r="W25" t="n">
+        <v>2840</v>
+      </c>
+      <c r="X25" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1910</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>2990</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="n">
+        <v>1266087.346145</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>243444.788944325</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>479008.6</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>2171460.785089325</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/opm_hero_property/heroes/19.xlsx
+++ b/opm_hero_property/heroes/19.xlsx
@@ -6543,7 +6543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS25"/>
+  <dimension ref="A1:AW25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6739,40 +6739,60 @@
       </c>
       <c r="AL1" t="inlineStr">
         <is>
+          <t>job_contact</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>attr_addition</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>pvp_addition</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
           <t>基础战力</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>装备战力</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>天赋战力</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>研究所战力</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>职阶战力</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>机械核心战力</t>
         </is>
       </c>
-      <c r="AR1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>限制器战力</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>收集战力</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
         <is>
           <t>总战力</t>
         </is>
@@ -6812,7 +6832,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L2" t="n">
         <v>19</v>
@@ -6835,17 +6855,17 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,5,5,5</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5068249.9719434</v>
+        <v>5916181.9799594</v>
       </c>
       <c r="U2" t="n">
-        <v>930971.6377845</v>
+        <v>1093380.1321765</v>
       </c>
       <c r="V2" t="n">
-        <v>766018.7900873</v>
+        <v>890017.9562393</v>
       </c>
       <c r="W2" t="n">
         <v>2840</v>
@@ -6884,33 +6904,41 @@
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
       <c r="AL2" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="n">
         <v>11173969.058685</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AP2" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AQ2" t="n">
         <v>2136562.356973425</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AR2" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP2" t="n">
-        <v>2006045.6</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>0</v>
-      </c>
       <c r="AS2" t="n">
-        <v>15911740.31565842</v>
+        <v>2899897.1246948</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1787694.3</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>18593286.14035323</v>
       </c>
     </row>
     <row r="3">
@@ -6947,7 +6975,7 @@
         <v>10</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L3" t="n">
         <v>19</v>
@@ -6970,17 +6998,17 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,5,5,5</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>645852.6207093</v>
+        <v>741343.0641413</v>
       </c>
       <c r="U3" t="n">
-        <v>133007.2059265</v>
+        <v>151296.9128305</v>
       </c>
       <c r="V3" t="n">
-        <v>103074.8597369</v>
+        <v>117329.7321929</v>
       </c>
       <c r="W3" t="n">
         <v>2840</v>
@@ -7019,33 +7047,41 @@
         <v>10</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
       <c r="AL3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="n">
         <v>1266087.346145</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AP3" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AQ3" t="n">
         <v>243444.788944325</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AR3" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP3" t="n">
-        <v>479008.6</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>0</v>
-      </c>
       <c r="AS3" t="n">
-        <v>2171460.785089325</v>
+        <v>580229.5876916</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>202433.95</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>2475115.722780925</v>
       </c>
     </row>
     <row r="4">
@@ -7082,7 +7118,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>19</v>
@@ -7105,17 +7141,17 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>3,2,1,1,0,0,0,0,0</t>
+          <t>3,2,1,1,0,0,0,0</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>7639.7104</v>
+        <v>8086.7104</v>
       </c>
       <c r="U4" t="n">
-        <v>1570.2743</v>
+        <v>1655.2743</v>
       </c>
       <c r="V4" t="n">
-        <v>580.3425999999999</v>
+        <v>645.3425999999999</v>
       </c>
       <c r="W4" t="n">
         <v>550</v>
@@ -7154,25 +7190,21 @@
         <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="n">
         <v>19042.17302</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AP4" t="n">
         <v>4498.9</v>
       </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ4" t="n">
         <v>0</v>
       </c>
@@ -7180,7 +7212,19 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>23541.07302</v>
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>1407.25</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>24948.32302</v>
       </c>
     </row>
     <row r="5">
@@ -7217,7 +7261,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>19</v>
@@ -7240,17 +7284,17 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>3,2,2,2,0,0,0,0,0</t>
+          <t>3,2,2,2,0,0,0,0</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>20352.0675</v>
+        <v>33478.0675</v>
       </c>
       <c r="U5" t="n">
-        <v>3922.516</v>
+        <v>6436.516</v>
       </c>
       <c r="V5" t="n">
-        <v>1751.512</v>
+        <v>3670.512</v>
       </c>
       <c r="W5" t="n">
         <v>638</v>
@@ -7289,25 +7333,21 @@
         <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="n">
         <v>48278.52190000001</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AP5" t="n">
         <v>11906.8</v>
       </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ5" t="n">
         <v>0</v>
       </c>
@@ -7315,7 +7355,19 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>60185.3219</v>
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>41506.85000000001</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>101692.1719</v>
       </c>
     </row>
     <row r="6">
@@ -7352,7 +7404,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L6" t="n">
         <v>19</v>
@@ -7375,17 +7427,17 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,0,0,0,0</t>
+          <t>4,3,2,2,0,0,0,0</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>57030.22</v>
+        <v>113304.22</v>
       </c>
       <c r="U6" t="n">
-        <v>10054.725</v>
+        <v>20832.725</v>
       </c>
       <c r="V6" t="n">
-        <v>5640.780000000001</v>
+        <v>13869.78</v>
       </c>
       <c r="W6" t="n">
         <v>900</v>
@@ -7424,33 +7476,41 @@
         <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="n">
         <v>115154.0075</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AP6" t="n">
         <v>32738.5</v>
       </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AS6" t="n">
         <v>9356.799999999999</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>163409.8075</v>
+      <c r="AT6" t="n">
+        <v>177958.95</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>341368.7575</v>
       </c>
     </row>
     <row r="7">
@@ -7487,7 +7547,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L7" t="n">
         <v>19</v>
@@ -7510,17 +7570,17 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,1,0,0,1</t>
+          <t>4,3,2,2,0,1,0,0</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>57030.22</v>
+        <v>113304.22</v>
       </c>
       <c r="U7" t="n">
-        <v>10054.725</v>
+        <v>20832.725</v>
       </c>
       <c r="V7" t="n">
-        <v>5640.780000000001</v>
+        <v>13869.78</v>
       </c>
       <c r="W7" t="n">
         <v>900</v>
@@ -7559,33 +7619,41 @@
         <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="n">
         <v>115154.0075</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AP7" t="n">
         <v>32738.5</v>
       </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AS7" t="n">
         <v>9538.799999999999</v>
       </c>
-      <c r="AQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>163591.8075</v>
+      <c r="AT7" t="n">
+        <v>177958.95</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>341550.7575</v>
       </c>
     </row>
     <row r="8">
@@ -7622,7 +7690,7 @@
         <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L8" t="n">
         <v>19</v>
@@ -7645,17 +7713,17 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>4,3,2,2,1,1,0,0,2</t>
+          <t>4,3,2,2,1,1,0,0</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>57295.11554</v>
+        <v>113569.11554</v>
       </c>
       <c r="U8" t="n">
-        <v>10093.638625</v>
+        <v>20871.638625</v>
       </c>
       <c r="V8" t="n">
-        <v>5668.51946</v>
+        <v>13897.51946</v>
       </c>
       <c r="W8" t="n">
         <v>900</v>
@@ -7694,33 +7762,41 @@
         <v>2</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="n">
         <v>115154.0075</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AP8" t="n">
         <v>32738.5</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AQ8" t="n">
         <v>692.9014475</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AR8" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AS8" t="n">
         <v>9538.799999999999</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>164284.7089475</v>
+      <c r="AT8" t="n">
+        <v>177958.95</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>342243.6589475</v>
       </c>
     </row>
     <row r="9">
@@ -7757,7 +7833,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L9" t="n">
         <v>19</v>
@@ -7780,35 +7856,35 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>5,3,3,3,0,2,1,0,0</t>
+          <t>5,3,3,3,0,2,1,0</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>238807.5516</v>
+        <v>409173.957116</v>
       </c>
       <c r="U9" t="n">
-        <v>40910.88</v>
+        <v>71438.67879999999</v>
       </c>
       <c r="V9" t="n">
-        <v>27077.633</v>
+        <v>50625.07933</v>
       </c>
       <c r="W9" t="n">
-        <v>1940</v>
+        <v>1950</v>
       </c>
       <c r="X9" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="Y9" t="n">
         <v>15000</v>
       </c>
       <c r="Z9" t="n">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="AA9" t="n">
-        <v>2880</v>
+        <v>2890</v>
       </c>
       <c r="AB9" t="n">
-        <v>2010</v>
+        <v>2050</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -7829,33 +7905,41 @@
         <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="n">
         <v>519768.36335</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AP9" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP9" t="n">
-        <v>38885</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>0</v>
-      </c>
       <c r="AS9" t="n">
-        <v>687934.01335</v>
+        <v>44074.4336335</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>416989</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>94347.60000000001</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>1204460.0469835</v>
       </c>
     </row>
     <row r="10">
@@ -7892,7 +7976,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L10" t="n">
         <v>19</v>
@@ -7915,35 +7999,35 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,2,1,0,1</t>
+          <t>5,3,3,3,1,2,1,0</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>240009.0354612</v>
+        <v>467359.1589147896</v>
       </c>
       <c r="U10" t="n">
-        <v>41075.27940000001</v>
+        <v>80902.3570152</v>
       </c>
       <c r="V10" t="n">
-        <v>27224.245431</v>
+        <v>57182.782212698</v>
       </c>
       <c r="W10" t="n">
-        <v>1940</v>
+        <v>1950</v>
       </c>
       <c r="X10" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="Y10" t="n">
         <v>15000</v>
       </c>
       <c r="Z10" t="n">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="AA10" t="n">
-        <v>2880</v>
+        <v>2890</v>
       </c>
       <c r="AB10" t="n">
-        <v>2010</v>
+        <v>2050</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -7964,33 +8048,45 @@
         <v>1</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
       <c r="AL10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO10" t="n">
         <v>519768.36335</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AP10" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AQ10" t="n">
         <v>3178.86119945</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AR10" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP10" t="n">
-        <v>38885</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>0</v>
-      </c>
       <c r="AS10" t="n">
-        <v>691112.8745494501</v>
+        <v>44074.4336335</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>416989</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>252360.1118597331</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>1365651.420042683</v>
       </c>
     </row>
     <row r="11">
@@ -8027,7 +8123,7 @@
         <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L11" t="n">
         <v>19</v>
@@ -8050,35 +8146,35 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,1,0,5</t>
+          <t>5,3,3,3,2,2,1,0</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>252023.8740732</v>
+        <v>543764.9846218056</v>
       </c>
       <c r="U11" t="n">
-        <v>42719.27340000001</v>
+        <v>91316.2227992</v>
       </c>
       <c r="V11" t="n">
-        <v>28690.369741</v>
+        <v>65801.296760278</v>
       </c>
       <c r="W11" t="n">
-        <v>2240</v>
+        <v>2250</v>
       </c>
       <c r="X11" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="Y11" t="n">
         <v>15000</v>
       </c>
       <c r="Z11" t="n">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="AA11" t="n">
-        <v>2880</v>
+        <v>2890</v>
       </c>
       <c r="AB11" t="n">
-        <v>2010</v>
+        <v>2050</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -8099,33 +8195,45 @@
         <v>5</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO11" t="n">
         <v>519768.36335</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AP11" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AQ11" t="n">
         <v>35462.47319395001</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AR11" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP11" t="n">
-        <v>38885</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>0</v>
-      </c>
       <c r="AS11" t="n">
-        <v>723396.4865439502</v>
+        <v>44074.4336335</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>416989</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>418389.458130434</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>1563964.378307884</v>
       </c>
     </row>
     <row r="12">
@@ -8162,7 +8270,7 @@
         <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L12" t="n">
         <v>19</v>
@@ -8185,35 +8293,35 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,3,2,1,0</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>264038.7126852</v>
+        <v>638269.0816834252</v>
       </c>
       <c r="U12" t="n">
-        <v>44363.2674</v>
+        <v>102454.3545902</v>
       </c>
       <c r="V12" t="n">
-        <v>30156.494051</v>
+        <v>77999.889877002</v>
       </c>
       <c r="W12" t="n">
-        <v>2540</v>
+        <v>2560</v>
       </c>
       <c r="X12" t="n">
-        <v>720</v>
+        <v>740</v>
       </c>
       <c r="Y12" t="n">
         <v>15000</v>
       </c>
       <c r="Z12" t="n">
-        <v>930</v>
+        <v>950</v>
       </c>
       <c r="AA12" t="n">
-        <v>2880</v>
+        <v>2900</v>
       </c>
       <c r="AB12" t="n">
-        <v>2010</v>
+        <v>2090</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -8234,33 +8342,45 @@
         <v>5</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="inlineStr"/>
       <c r="AL12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO12" t="n">
         <v>519768.36335</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AP12" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AQ12" t="n">
         <v>67746.08518845</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AR12" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP12" t="n">
-        <v>38885</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>0</v>
-      </c>
       <c r="AS12" t="n">
-        <v>755680.0985384501</v>
+        <v>44074.4336335</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>416989</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>628219.9629766166</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>1806078.495148567</v>
       </c>
     </row>
     <row r="13">
@@ -8297,7 +8417,7 @@
         <v>10</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L13" t="n">
         <v>19</v>
@@ -8320,35 +8440,35 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,1,0,10</t>
+          <t>5,3,3,3,4,2,1,0</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>276053.5512972</v>
+        <v>746608.2479062772</v>
       </c>
       <c r="U13" t="n">
-        <v>46007.2614</v>
+        <v>116981.1364642</v>
       </c>
       <c r="V13" t="n">
-        <v>31622.618361</v>
+        <v>90381.063408022</v>
       </c>
       <c r="W13" t="n">
-        <v>2840</v>
+        <v>2890</v>
       </c>
       <c r="X13" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="Y13" t="n">
         <v>15000</v>
       </c>
       <c r="Z13" t="n">
-        <v>930</v>
+        <v>980</v>
       </c>
       <c r="AA13" t="n">
-        <v>2880</v>
+        <v>2930</v>
       </c>
       <c r="AB13" t="n">
-        <v>2010</v>
+        <v>2210</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -8369,33 +8489,45 @@
         <v>10</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
       <c r="AL13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO13" t="n">
         <v>519768.36335</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AP13" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AQ13" t="n">
         <v>100029.69718295</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AR13" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP13" t="n">
-        <v>38885</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>0</v>
-      </c>
       <c r="AS13" t="n">
-        <v>787963.71053295</v>
+        <v>44074.4336335</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>416989</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>876557.0599389337</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>2086699.204105384</v>
       </c>
     </row>
     <row r="14">
@@ -8432,7 +8564,7 @@
         <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L14" t="n">
         <v>19</v>
@@ -8455,35 +8587,35 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,0,0,5</t>
+          <t>5,3,3,3,4,2,0,0</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>276053.5512972</v>
+        <v>877465.2027402336</v>
       </c>
       <c r="U14" t="n">
-        <v>46007.2614</v>
+        <v>131808.3176448</v>
       </c>
       <c r="V14" t="n">
-        <v>31622.618361</v>
+        <v>100878.402243584</v>
       </c>
       <c r="W14" t="n">
-        <v>2840</v>
+        <v>2890</v>
       </c>
       <c r="X14" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="Y14" t="n">
         <v>15000</v>
       </c>
       <c r="Z14" t="n">
-        <v>860</v>
+        <v>910</v>
       </c>
       <c r="AA14" t="n">
-        <v>2880</v>
+        <v>2930</v>
       </c>
       <c r="AB14" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -8504,33 +8636,45 @@
         <v>5</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
       <c r="AL14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO14" t="n">
         <v>519768.36335</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AP14" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AQ14" t="n">
         <v>100029.69718295</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AR14" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP14" t="n">
-        <v>38703</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>0</v>
-      </c>
       <c r="AS14" t="n">
-        <v>787781.71053295</v>
+        <v>43892.4336335</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>416989</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>1170081.263223512</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>2380041.407389962</v>
       </c>
     </row>
     <row r="15">
@@ -8567,7 +8711,7 @@
         <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L15" t="n">
         <v>19</v>
@@ -8590,35 +8734,35 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,0,6</t>
+          <t>5,3,3,3,4,2,2,0</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>406230.4880694</v>
+        <v>1396074.236069636</v>
       </c>
       <c r="U15" t="n">
-        <v>70175.634492</v>
+        <v>223614.7749914</v>
       </c>
       <c r="V15" t="n">
-        <v>53815.8782278</v>
+        <v>172961.8515847194</v>
       </c>
       <c r="W15" t="n">
-        <v>2840</v>
+        <v>2940</v>
       </c>
       <c r="X15" t="n">
-        <v>720</v>
+        <v>820</v>
       </c>
       <c r="Y15" t="n">
         <v>15000</v>
       </c>
       <c r="Z15" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="AA15" t="n">
-        <v>2880</v>
+        <v>2980</v>
       </c>
       <c r="AB15" t="n">
-        <v>2080</v>
+        <v>2480</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -8639,33 +8783,45 @@
         <v>6</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ15" t="inlineStr"/>
       <c r="AK15" t="inlineStr"/>
       <c r="AL15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO15" t="n">
         <v>800051.07741</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AP15" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AQ15" t="n">
         <v>153844.98846405</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AR15" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP15" t="n">
-        <v>111419.8</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>0</v>
-      </c>
       <c r="AS15" t="n">
-        <v>1212695.66587405</v>
+        <v>127404.3215482</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>762958.1000000001</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>1955920.542700183</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>3947558.830122433</v>
       </c>
     </row>
     <row r="16">
@@ -8702,7 +8858,7 @@
         <v>7</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L16" t="n">
         <v>19</v>
@@ -8725,35 +8881,35 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,4,2,2,1</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>406230.4880694</v>
+        <v>1422573.72348777</v>
       </c>
       <c r="U16" t="n">
-        <v>70175.634492</v>
+        <v>227740.46732772</v>
       </c>
       <c r="V16" t="n">
-        <v>53815.8782278</v>
+        <v>176123.4694038522</v>
       </c>
       <c r="W16" t="n">
-        <v>2840</v>
+        <v>3040</v>
       </c>
       <c r="X16" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y16" t="n">
         <v>15000</v>
       </c>
       <c r="Z16" t="n">
-        <v>1070</v>
+        <v>1270</v>
       </c>
       <c r="AA16" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB16" t="n">
-        <v>2150</v>
+        <v>2950</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
@@ -8774,33 +8930,45 @@
         <v>7</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="inlineStr"/>
       <c r="AK16" t="inlineStr"/>
       <c r="AL16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO16" t="n">
         <v>800051.07741</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AP16" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AQ16" t="n">
         <v>153844.98846405</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AR16" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP16" t="n">
-        <v>111601.8</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>0</v>
-      </c>
       <c r="AS16" t="n">
-        <v>1212877.66587405</v>
+        <v>127586.3215482</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>762958.1000000001</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>2030266.609698939</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>4022086.897121189</v>
       </c>
     </row>
     <row r="17">
@@ -8837,7 +9005,7 @@
         <v>8</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L17" t="n">
         <v>19</v>
@@ -8860,35 +9028,35 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,4,3,3,3</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>984759.9472836</v>
+        <v>2568598.536680724</v>
       </c>
       <c r="U17" t="n">
-        <v>179356.375426</v>
+        <v>419719.754991968</v>
       </c>
       <c r="V17" t="n">
-        <v>157252.8406</v>
+        <v>351977.1703072</v>
       </c>
       <c r="W17" t="n">
-        <v>2840</v>
+        <v>3040</v>
       </c>
       <c r="X17" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y17" t="n">
         <v>15000</v>
       </c>
       <c r="Z17" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="AA17" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB17" t="n">
-        <v>2430</v>
+        <v>3230</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -8909,33 +9077,45 @@
         <v>8</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ17" t="inlineStr"/>
       <c r="AK17" t="inlineStr"/>
       <c r="AL17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO17" t="n">
         <v>1832519.84828</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AP17" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AQ17" t="n">
         <v>352265.772893</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AR17" t="n">
         <v>155697.55</v>
       </c>
-      <c r="AP17" t="n">
-        <v>685602</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>0</v>
-      </c>
       <c r="AS17" t="n">
-        <v>3140244.771173</v>
+        <v>758869.7939311999</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>1219029.4</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>3072113.610287503</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>7504655.575391702</v>
       </c>
     </row>
     <row r="18">
@@ -8972,7 +9152,7 @@
         <v>10</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L18" t="n">
         <v>19</v>
@@ -8995,35 +9175,35 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,5,5,5</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5068249.9719434</v>
+        <v>9043037.120512417</v>
       </c>
       <c r="U18" t="n">
-        <v>930971.6377845</v>
+        <v>1490942.587773327</v>
       </c>
       <c r="V18" t="n">
-        <v>766018.7900873</v>
+        <v>1218201.819075537</v>
       </c>
       <c r="W18" t="n">
-        <v>2840</v>
+        <v>3040</v>
       </c>
       <c r="X18" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>1910</v>
+        <v>2110</v>
       </c>
       <c r="AA18" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB18" t="n">
-        <v>2990</v>
+        <v>3790</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -9044,33 +9224,45 @@
         <v>10</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ18" t="inlineStr"/>
       <c r="AK18" t="inlineStr"/>
       <c r="AL18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO18" t="n">
         <v>11173969.058685</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AP18" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AQ18" t="n">
         <v>2136562.356973425</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AR18" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP18" t="n">
-        <v>2006045.6</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>0</v>
-      </c>
       <c r="AS18" t="n">
-        <v>15911740.31565842</v>
+        <v>2899897.1246948</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>1787694.3</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>7759493.295479485</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>26352779.43583271</v>
       </c>
     </row>
     <row r="19">
@@ -9107,7 +9299,7 @@
         <v>10</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L19" t="n">
         <v>19</v>
@@ -9130,35 +9322,35 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,5,5,5</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>8363033.637629701</v>
+        <v>15646592.11747373</v>
       </c>
       <c r="U19" t="n">
-        <v>1538538.9984755</v>
+        <v>2686086.318583952</v>
       </c>
       <c r="V19" t="n">
-        <v>1259932.9857836</v>
+        <v>2187576.722877862</v>
       </c>
       <c r="W19" t="n">
-        <v>2840</v>
+        <v>3040</v>
       </c>
       <c r="X19" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>2820</v>
+        <v>3020</v>
       </c>
       <c r="AA19" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB19" t="n">
-        <v>3900</v>
+        <v>4700</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -9179,33 +9371,45 @@
         <v>10</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ19" t="inlineStr"/>
       <c r="AK19" t="inlineStr"/>
       <c r="AL19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>1,1,5000;2,1,5000;3,1,5000;4,1,5000;1,2,5000;2,2,5000;3,2,5000;4,2,5000;5,1,5000;5,2,5000</t>
+        </is>
+      </c>
+      <c r="AO19" t="n">
         <v>18132484.41969</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AP19" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AQ19" t="n">
         <v>3465466.57567635</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AR19" t="n">
         <v>1061573.2</v>
       </c>
-      <c r="AP19" t="n">
-        <v>3467427.6</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>0</v>
-      </c>
       <c r="AS19" t="n">
-        <v>26241111.39536636</v>
+        <v>6187176.5129535</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>1787694.3</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>16030543.26393085</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>46779097.87225071</v>
       </c>
     </row>
     <row r="20">
@@ -9242,7 +9446,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L20" t="n">
         <v>19</v>
@@ -9265,17 +9469,17 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,1,0,0,1</t>
+          <t>5,3,3,3,1,1,0,0</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>208784.483685</v>
+        <v>215121.483685</v>
       </c>
       <c r="U20" t="n">
-        <v>41291.6530885</v>
+        <v>42504.6530885</v>
       </c>
       <c r="V20" t="n">
-        <v>23490.365956</v>
+        <v>24436.365956</v>
       </c>
       <c r="W20" t="n">
         <v>900</v>
@@ -9314,33 +9518,41 @@
         <v>1</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ20" t="inlineStr"/>
       <c r="AK20" t="inlineStr"/>
       <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="n">
         <v>549989.31213</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AP20" t="n">
         <v>32738.5</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AQ20" t="n">
         <v>3337.48211265</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AR20" t="n">
         <v>14696.9</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AS20" t="n">
         <v>32753.8</v>
       </c>
-      <c r="AQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>633515.99424265</v>
+      <c r="AT20" t="n">
+        <v>20146.2</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>653662.1942426499</v>
       </c>
     </row>
     <row r="21">
@@ -9377,7 +9589,7 @@
         <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L21" t="n">
         <v>19</v>
@@ -9400,17 +9612,17 @@
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,0,0,2</t>
+          <t>5,3,3,3,2,2,0,0</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>274457.0858828</v>
+        <v>287560.5546468</v>
       </c>
       <c r="U21" t="n">
-        <v>51638.138486</v>
+        <v>54162.14453799999</v>
       </c>
       <c r="V21" t="n">
-        <v>33198.94477</v>
+        <v>35101.36487</v>
       </c>
       <c r="W21" t="n">
         <v>1400</v>
@@ -9449,33 +9661,41 @@
         <v>2</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AJ21" t="inlineStr"/>
       <c r="AK21" t="inlineStr"/>
       <c r="AL21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="n">
         <v>651102.6097800001</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AP21" t="n">
         <v>49107.75</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AQ21" t="n">
         <v>44205.8640837</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AR21" t="n">
         <v>19028.1</v>
       </c>
-      <c r="AP21" t="n">
-        <v>65507.60000000001</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>0</v>
-      </c>
       <c r="AS21" t="n">
-        <v>828951.9238637</v>
+        <v>72010.37609780001</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>34955.25</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>870409.9499615</v>
       </c>
     </row>
     <row r="22">
@@ -9512,7 +9732,7 @@
         <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L22" t="n">
         <v>19</v>
@@ -9535,35 +9755,35 @@
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,3,2,1,0</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>389207.6728028</v>
+        <v>514757.5615732316</v>
       </c>
       <c r="U22" t="n">
-        <v>68543.375165</v>
+        <v>87368.565671495</v>
       </c>
       <c r="V22" t="n">
-        <v>50243.752497</v>
+        <v>65306.41793958801</v>
       </c>
       <c r="W22" t="n">
-        <v>2540</v>
+        <v>2590</v>
       </c>
       <c r="X22" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="Y22" t="n">
         <v>15000</v>
       </c>
       <c r="Z22" t="n">
-        <v>930</v>
+        <v>980</v>
       </c>
       <c r="AA22" t="n">
-        <v>2880</v>
+        <v>2930</v>
       </c>
       <c r="AB22" t="n">
-        <v>2010</v>
+        <v>2210</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -9584,33 +9804,45 @@
         <v>5</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="inlineStr"/>
       <c r="AK22" t="inlineStr"/>
       <c r="AL22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO22" t="n">
         <v>823081.65935</v>
       </c>
-      <c r="AM22" t="n">
+      <c r="AP22" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN22" t="n">
+      <c r="AQ22" t="n">
         <v>107180.17894905</v>
       </c>
-      <c r="AO22" t="n">
+      <c r="AR22" t="n">
         <v>23382.7</v>
       </c>
-      <c r="AP22" t="n">
-        <v>95389.39999999999</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>0</v>
-      </c>
       <c r="AS22" t="n">
-        <v>1163193.53829905</v>
+        <v>103611.9665935</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>47214.60000000001</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>287216.8629666281</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>1505847.567859178</v>
       </c>
     </row>
     <row r="23">
@@ -9647,7 +9879,7 @@
         <v>7</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L23" t="n">
         <v>19</v>
@@ -9670,35 +9902,35 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,4,2,2,1</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>448167.4697163</v>
+        <v>662030.9499414676</v>
       </c>
       <c r="U23" t="n">
-        <v>80727.631316</v>
+        <v>116623.86895782</v>
       </c>
       <c r="V23" t="n">
-        <v>60792.6593071</v>
+        <v>87275.5913232333</v>
       </c>
       <c r="W23" t="n">
-        <v>2840</v>
+        <v>3040</v>
       </c>
       <c r="X23" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y23" t="n">
         <v>15000</v>
       </c>
       <c r="Z23" t="n">
-        <v>1070</v>
+        <v>1270</v>
       </c>
       <c r="AA23" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB23" t="n">
-        <v>2150</v>
+        <v>2950</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -9719,33 +9951,45 @@
         <v>7</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="inlineStr"/>
       <c r="AK23" t="inlineStr"/>
       <c r="AL23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO23" t="n">
         <v>898701.329805</v>
       </c>
-      <c r="AM23" t="n">
+      <c r="AP23" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN23" t="n">
+      <c r="AQ23" t="n">
         <v>172792.337007525</v>
       </c>
-      <c r="AO23" t="n">
+      <c r="AR23" t="n">
         <v>30363.65</v>
       </c>
-      <c r="AP23" t="n">
-        <v>151723</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>0</v>
-      </c>
       <c r="AS23" t="n">
-        <v>1367739.916812525</v>
+        <v>169680.5265961</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>86391.70000000001</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>511875.1524503921</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>1983964.295859017</v>
       </c>
     </row>
     <row r="24">
@@ -9782,7 +10026,7 @@
         <v>8</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L24" t="n">
         <v>19</v>
@@ -9805,35 +10049,35 @@
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,4,3,3,3</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>512787.01084</v>
+        <v>827939.94848504</v>
       </c>
       <c r="U24" t="n">
-        <v>97923.533987</v>
+        <v>151995.694917021</v>
       </c>
       <c r="V24" t="n">
-        <v>74741.0526428</v>
+        <v>115205.4889371204</v>
       </c>
       <c r="W24" t="n">
-        <v>2840</v>
+        <v>3040</v>
       </c>
       <c r="X24" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y24" t="n">
         <v>15000</v>
       </c>
       <c r="Z24" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="AA24" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB24" t="n">
-        <v>2430</v>
+        <v>3230</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -9854,33 +10098,45 @@
         <v>8</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ24" t="inlineStr"/>
       <c r="AK24" t="inlineStr"/>
       <c r="AL24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO24" t="n">
         <v>1018040.54556</v>
       </c>
-      <c r="AM24" t="n">
+      <c r="AP24" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN24" t="n">
+      <c r="AQ24" t="n">
         <v>195751.0524864</v>
       </c>
-      <c r="AO24" t="n">
+      <c r="AR24" t="n">
         <v>43173.05</v>
       </c>
-      <c r="AP24" t="n">
-        <v>260818.2</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>0</v>
-      </c>
       <c r="AS24" t="n">
-        <v>1631942.4480464</v>
+        <v>301506.8218224</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>138036.6</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>744596.1349321272</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>2555263.804800927</v>
       </c>
     </row>
     <row r="25">
@@ -9917,7 +10173,7 @@
         <v>10</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L25" t="n">
         <v>19</v>
@@ -9940,35 +10196,35 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,5,5,5</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>645852.6207093</v>
+        <v>1406765.711442254</v>
       </c>
       <c r="U25" t="n">
-        <v>133007.2059265</v>
+        <v>260819.0536453605</v>
       </c>
       <c r="V25" t="n">
-        <v>103074.8597369</v>
+        <v>201964.7795543547</v>
       </c>
       <c r="W25" t="n">
-        <v>2840</v>
+        <v>3040</v>
       </c>
       <c r="X25" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y25" t="n">
         <v>15000</v>
       </c>
       <c r="Z25" t="n">
-        <v>1910</v>
+        <v>2110</v>
       </c>
       <c r="AA25" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB25" t="n">
-        <v>2990</v>
+        <v>3790</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
@@ -9989,33 +10245,45 @@
         <v>10</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ25" t="inlineStr"/>
       <c r="AK25" t="inlineStr"/>
       <c r="AL25" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO25" t="n">
         <v>1266087.346145</v>
       </c>
-      <c r="AM25" t="n">
+      <c r="AP25" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN25" t="n">
+      <c r="AQ25" t="n">
         <v>243444.788944325</v>
       </c>
-      <c r="AO25" t="n">
+      <c r="AR25" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP25" t="n">
-        <v>479008.6</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>0</v>
-      </c>
       <c r="AS25" t="n">
-        <v>2171460.785089325</v>
+        <v>580229.5876916</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>202433.95</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>1910176.941251857</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>4385292.664032781</v>
       </c>
     </row>
   </sheetData>
